--- a/data/trans_orig/P33B_R4-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33B_R4-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>97303</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>78973</v>
+        <v>79078</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>120255</v>
+        <v>118925</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1410949685469726</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1145153240428909</v>
+        <v>0.1146678555150822</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1743759527748126</v>
+        <v>0.1724478327947816</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>294</v>
@@ -762,19 +762,19 @@
         <v>169548</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>151294</v>
+        <v>151590</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>186897</v>
+        <v>188352</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.231526404293446</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2065987159942029</v>
+        <v>0.2070035049714342</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2552166254720671</v>
+        <v>0.2572030311965257</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>400</v>
@@ -783,19 +783,19 @@
         <v>266851</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>240068</v>
+        <v>240344</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>293246</v>
+        <v>294999</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1876678209485379</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.168832341239784</v>
+        <v>0.1690258788195092</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2062300368358746</v>
+        <v>0.2074634990149791</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>592325</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>569373</v>
+        <v>570703</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>610655</v>
+        <v>610550</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8589050314530273</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8256240472251879</v>
+        <v>0.8275521672052185</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8854846759571091</v>
+        <v>0.8853321444849177</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>943</v>
@@ -833,19 +833,19 @@
         <v>562759</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>545410</v>
+        <v>543955</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>581013</v>
+        <v>580717</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.768473595706554</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.744783374527933</v>
+        <v>0.7427969688034743</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7934012840057971</v>
+        <v>0.7929964950285657</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1566</v>
@@ -854,19 +854,19 @@
         <v>1155083</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1128688</v>
+        <v>1126935</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1181866</v>
+        <v>1181590</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8123321790514622</v>
+        <v>0.8123321790514623</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7937699631641254</v>
+        <v>0.7925365009850209</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8311676587602157</v>
+        <v>0.8309741211804909</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>136667</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>116163</v>
+        <v>115478</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>159392</v>
+        <v>164344</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.13041673553346</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1108498658570611</v>
+        <v>0.110195967896829</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1521023474283894</v>
+        <v>0.15682766829702</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>360</v>
@@ -979,19 +979,19 @@
         <v>237754</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>213985</v>
+        <v>214435</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>262335</v>
+        <v>260146</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2221800517999285</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1999678240858795</v>
+        <v>0.2003883375913471</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2451506761466577</v>
+        <v>0.2431051752210182</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>504</v>
@@ -1000,19 +1000,19 @@
         <v>374422</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>342261</v>
+        <v>342758</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>408607</v>
+        <v>411952</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.1767786129984788</v>
+        <v>0.1767786129984787</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1615942682388999</v>
+        <v>0.1618288608617661</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1929187200081119</v>
+        <v>0.1944978801640383</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>911262</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>888537</v>
+        <v>883585</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>931766</v>
+        <v>932451</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.86958326446654</v>
+        <v>0.8695832644665397</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8478976525716108</v>
+        <v>0.84317233170298</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8891501341429389</v>
+        <v>0.889804032103171</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1155</v>
@@ -1050,19 +1050,19 @@
         <v>832344</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>807763</v>
+        <v>809952</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>856113</v>
+        <v>855663</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7778199482000716</v>
+        <v>0.7778199482000715</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7548493238533426</v>
+        <v>0.7568948247789825</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8000321759141207</v>
+        <v>0.7996116624086529</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1974</v>
@@ -1071,19 +1071,19 @@
         <v>1743605</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1709420</v>
+        <v>1706075</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1775766</v>
+        <v>1775269</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.823221387001521</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8070812799918882</v>
+        <v>0.8055021198359618</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8384057317611003</v>
+        <v>0.8381711391382339</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>93299</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>73916</v>
+        <v>75688</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>113659</v>
+        <v>114185</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1161771421627128</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09204085550095958</v>
+        <v>0.09424856975786498</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1415300243729343</v>
+        <v>0.1421850382143752</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>204</v>
@@ -1196,19 +1196,19 @@
         <v>162991</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>143310</v>
+        <v>143173</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>186980</v>
+        <v>186283</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2006642680288751</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1764337476234715</v>
+        <v>0.1762657718257088</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2301978481204451</v>
+        <v>0.2293393139013732</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>295</v>
@@ -1217,19 +1217,19 @@
         <v>256290</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>227059</v>
+        <v>228389</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>288811</v>
+        <v>287830</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1586609259600945</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1405652127334468</v>
+        <v>0.1413883987846271</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1787935264915647</v>
+        <v>0.1781863086124517</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>709774</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>689414</v>
+        <v>688888</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>729157</v>
+        <v>727385</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8838228578372873</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8584699756270658</v>
+        <v>0.8578149617856248</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9079591444990405</v>
+        <v>0.9057514302421348</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>843</v>
@@ -1267,19 +1267,19 @@
         <v>649268</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>625279</v>
+        <v>625976</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>668949</v>
+        <v>669086</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.799335731971125</v>
+        <v>0.7993357319711247</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7698021518795549</v>
+        <v>0.7706606860986268</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8235662523765285</v>
+        <v>0.8237342281742913</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1428</v>
@@ -1288,19 +1288,19 @@
         <v>1359042</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1326521</v>
+        <v>1327502</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1388273</v>
+        <v>1386943</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8413390740399056</v>
+        <v>0.8413390740399055</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8212064735084352</v>
+        <v>0.8218136913875485</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8594347872665533</v>
+        <v>0.8586116012153731</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>160581</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>138434</v>
+        <v>136461</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>183741</v>
+        <v>182721</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.162352854079125</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1399623200207652</v>
+        <v>0.1379665461328785</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1857690201608122</v>
+        <v>0.1847377786128148</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>390</v>
@@ -1413,19 +1413,19 @@
         <v>270394</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>247323</v>
+        <v>245821</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>297888</v>
+        <v>295442</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.241785991222689</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2211562695327765</v>
+        <v>0.2198129409188877</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2663712451110213</v>
+        <v>0.2641842695106449</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>568</v>
@@ -1434,19 +1434,19 @@
         <v>430974</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>398245</v>
+        <v>399769</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>465471</v>
+        <v>469797</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2045050122373381</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1889741447727826</v>
+        <v>0.1896976447021977</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2208742972196264</v>
+        <v>0.2229267553413204</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>828503</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>805343</v>
+        <v>806363</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>850650</v>
+        <v>852623</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8376471459208751</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8142309798391878</v>
+        <v>0.8152622213871851</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8600376799792349</v>
+        <v>0.8620334538671214</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1171</v>
@@ -1484,19 +1484,19 @@
         <v>847925</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>820431</v>
+        <v>822877</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>870996</v>
+        <v>872498</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7582140087773109</v>
+        <v>0.758214008777311</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7336287548889786</v>
+        <v>0.7358157304893549</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7788437304672235</v>
+        <v>0.7801870590811122</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1998</v>
@@ -1505,19 +1505,19 @@
         <v>1676429</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1641932</v>
+        <v>1637606</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1709158</v>
+        <v>1707634</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.795494987762662</v>
+        <v>0.7954949877626619</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7791257027803737</v>
+        <v>0.7770732446586781</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8110258552272174</v>
+        <v>0.8103023552978023</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>487850</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>443127</v>
+        <v>445035</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>535932</v>
+        <v>530216</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1382122881106498</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1255420358413234</v>
+        <v>0.1260824944610589</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1518345094474919</v>
+        <v>0.150215052640227</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1248</v>
@@ -1630,19 +1630,19 @@
         <v>840688</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>795830</v>
+        <v>795314</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>888358</v>
+        <v>886845</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2252054357591612</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2131889006706216</v>
+        <v>0.2130505169081358</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2379755458396124</v>
+        <v>0.2375701173601832</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1767</v>
@@ -1651,19 +1651,19 @@
         <v>1328538</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1268249</v>
+        <v>1263546</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1397855</v>
+        <v>1396808</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1829262407612788</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1746251215628594</v>
+        <v>0.1739775242364132</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1924705459626205</v>
+        <v>0.1923264216905522</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>3041864</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2993782</v>
+        <v>2999498</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3086587</v>
+        <v>3084679</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8617877118893501</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8481654905525076</v>
+        <v>0.8497849473597729</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8744579641586765</v>
+        <v>0.8739175055389408</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4112</v>
@@ -1701,19 +1701,19 @@
         <v>2892294</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2844624</v>
+        <v>2846137</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2937152</v>
+        <v>2937668</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7747945642408387</v>
+        <v>0.7747945642408386</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7620244541603872</v>
+        <v>0.7624298826398167</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.786811099329378</v>
+        <v>0.7869494830918643</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6966</v>
@@ -1722,19 +1722,19 @@
         <v>5934158</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5864841</v>
+        <v>5865888</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5994447</v>
+        <v>5999150</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8170737592387212</v>
+        <v>0.8170737592387213</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8075294540373796</v>
+        <v>0.8076735783094479</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8253748784371404</v>
+        <v>0.826022475763587</v>
       </c>
     </row>
     <row r="18">
